--- a/doc/支付全部计划表.xlsx
+++ b/doc/支付全部计划表.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="24225" windowHeight="13500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="19.1.21-19.1.25" sheetId="70" r:id="rId1"/>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>微信扫码收款(主扫</t>
     </r>
     <r>
@@ -283,6 +289,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>微信条码(被扫</t>
     </r>
     <r>
@@ -297,6 +309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>微信刷脸(被扫</t>
     </r>
     <r>
@@ -389,6 +407,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>支付宝当面付(被扫</t>
     </r>
     <r>
@@ -403,6 +427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>支付宝刷脸付(被扫</t>
     </r>
     <r>
@@ -462,6 +492,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C4353"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务商平台给子系统提供支付宝收款接口：</t>
     </r>
     <r>
@@ -679,32 +715,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,24 +738,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,34 +762,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,13 +801,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -810,14 +815,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +892,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,79 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,37 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,49 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,6 +1124,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1102,17 +1162,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,52 +1215,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,10 +1226,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,137 +1238,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1352,9 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1782,33 +1815,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="64.95" customHeight="1" spans="1:7">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1817,17 +1850,17 @@
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1836,18 +1869,18 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1856,18 +1889,18 @@
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:6">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1876,18 +1909,18 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="61.05" customHeight="1" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1896,18 +1929,18 @@
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="64.95" customHeight="1" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1916,19 +1949,19 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1937,18 +1970,18 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="46.05" customHeight="1" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1957,10 +1990,10 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1989,33 +2022,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="94.05" customHeight="1" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2024,19 +2057,19 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2045,18 +2078,18 @@
       <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="52.95" customHeight="1" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2065,18 +2098,18 @@
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2085,18 +2118,18 @@
       <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="49.95" customHeight="1" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2105,18 +2138,18 @@
       <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="43.05" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2125,19 +2158,19 @@
       <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2146,10 +2179,10 @@
       <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2175,33 +2208,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="49.95" customHeight="1" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2210,19 +2243,19 @@
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" ht="49.05" customHeight="1" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2231,18 +2264,18 @@
       <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="55.05" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2251,18 +2284,18 @@
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="40.05" customHeight="1" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2271,18 +2304,18 @@
       <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="43.95" customHeight="1" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2291,18 +2324,18 @@
       <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="37.95" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2311,19 +2344,19 @@
       <c r="D7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" ht="34.05" customHeight="1" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2332,18 +2365,18 @@
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="43.95" customHeight="1" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2352,10 +2385,10 @@
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2370,7 +2403,7 @@
   <sheetPr/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E53" sqref="E53:E55"/>
     </sheetView>
   </sheetViews>
@@ -2460,7 +2493,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2517,7 +2550,7 @@
       <c r="E9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
@@ -2532,10 +2565,10 @@
       <c r="E10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2793,10 +2826,10 @@
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="7">
@@ -2808,10 +2841,10 @@
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E29" s="7">
@@ -2823,10 +2856,10 @@
       <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E30" s="7">
@@ -2835,13 +2868,13 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:6">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="7">
@@ -2850,13 +2883,13 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E32" s="7">
@@ -2868,10 +2901,10 @@
       <c r="A33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="7">
@@ -2883,25 +2916,25 @@
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="7">
         <v>0.1</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="7">
@@ -2912,10 +2945,10 @@
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E36" s="7">
@@ -2926,10 +2959,10 @@
       <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E37" s="7">
@@ -2940,10 +2973,10 @@
       <c r="A38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="7">
@@ -2954,10 +2987,10 @@
       <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="7">
@@ -2968,10 +3001,10 @@
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E40" s="7">
@@ -2982,10 +3015,10 @@
       <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="7">
@@ -2993,13 +3026,13 @@
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E42" s="7">
@@ -3007,13 +3040,13 @@
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="7">
@@ -3021,13 +3054,13 @@
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:5">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E44" s="7">
@@ -3035,13 +3068,13 @@
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:5">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E45" s="7">
@@ -3049,13 +3082,13 @@
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:5">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="7">
@@ -3063,13 +3096,13 @@
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:5">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="7">
@@ -3080,10 +3113,10 @@
       <c r="A48" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E48" s="7">
@@ -3094,10 +3127,10 @@
       <c r="A49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="7">
@@ -3108,10 +3141,10 @@
       <c r="A50" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E50" s="7">
@@ -3122,10 +3155,10 @@
       <c r="A51" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E51" s="7">
@@ -3136,10 +3169,10 @@
       <c r="A52" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E52" s="7">
@@ -3150,10 +3183,10 @@
       <c r="A53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E53" s="7">
@@ -3164,10 +3197,10 @@
       <c r="A54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E54" s="7">
@@ -3178,10 +3211,10 @@
       <c r="A55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E55" s="7">
@@ -3189,10 +3222,10 @@
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:1">
-      <c r="A57" s="8"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5"/>
